--- a/model_summary/gru.xlsx
+++ b/model_summary/gru.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reichi\Sem 7\Skripsi\Buku Skripsi\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Reichi\Sem 7\Skripsi\Buku Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAC3C59-622D-4426-A5F3-B0F89BAC526F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98DD94-30CF-497C-B8D0-05D78D927E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25800" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="20">
-  <si>
-    <t>index_counter</t>
-  </si>
-  <si>
-    <t>Var</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="29">
   <si>
     <t>TimeStep</t>
   </si>
@@ -55,31 +49,64 @@
     <t>R²</t>
   </si>
   <si>
-    <t>Tn</t>
-  </si>
-  <si>
     <t>Adam</t>
   </si>
   <si>
-    <t>Tx</t>
+    <t>Variable</t>
   </si>
   <si>
-    <t>Tavg</t>
+    <t>Model</t>
   </si>
   <si>
-    <t>RH_avg</t>
+    <t>Temperatur minimum</t>
   </si>
   <si>
-    <t>RR</t>
+    <t>Temperatur maksimum</t>
   </si>
   <si>
-    <t>ss</t>
+    <t>Temperatur rata-rata</t>
   </si>
   <si>
-    <t>ff_x</t>
+    <t>Kelembapan rata-rata</t>
   </si>
   <si>
-    <t>ff_avg</t>
+    <t>Curah hujan</t>
+  </si>
+  <si>
+    <t>Lamanya penyinaran matahari</t>
+  </si>
+  <si>
+    <t>Kecepatan angin maksimum</t>
+  </si>
+  <si>
+    <t>Kecepatan angin rata-rata</t>
+  </si>
+  <si>
+    <t>Layer 1 Activation Function</t>
+  </si>
+  <si>
+    <t>Layer 2 Activation Function</t>
+  </si>
+  <si>
+    <t>Layer 3 Activation Function</t>
+  </si>
+  <si>
+    <t>Layer 4 Activation Function</t>
+  </si>
+  <si>
+    <t>64, 32, 16, 8</t>
+  </si>
+  <si>
+    <t>128, 64, 32, 16</t>
+  </si>
+  <si>
+    <t>sigmoid</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>tanh</t>
   </si>
 </sst>
 </file>
@@ -498,85 +525,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K65"/>
+  <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="25.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2">
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F2" s="2">
-        <v>64</v>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="2">
         <v>32</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="2">
         <v>50</v>
       </c>
-      <c r="I2" s="2">
+      <c r="M2" s="2">
         <v>0.53357398818867463</v>
       </c>
-      <c r="J2" s="2">
+      <c r="N2" s="2">
         <v>0.70856980135939407</v>
       </c>
-      <c r="K2" s="2">
+      <c r="O2" s="2">
         <v>0.62976330216835519</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -587,31 +645,43 @@
         <v>7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F3" s="2">
-        <v>64</v>
+      <c r="F3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="2">
         <v>32</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="2">
         <v>50</v>
       </c>
-      <c r="I3" s="2">
+      <c r="M3" s="2">
         <v>0.90651722726047712</v>
       </c>
-      <c r="J3" s="2">
+      <c r="N3" s="2">
         <v>1.230290538633253</v>
       </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>0.4054451360721113</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -622,31 +692,43 @@
         <v>7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F4" s="2">
-        <v>64</v>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G4" s="2">
         <v>32</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="2">
         <v>50</v>
       </c>
-      <c r="I4" s="2">
+      <c r="M4" s="2">
         <v>0.69675280412411567</v>
       </c>
-      <c r="J4" s="2">
+      <c r="N4" s="2">
         <v>0.92104931440772519</v>
       </c>
-      <c r="K4" s="2">
+      <c r="O4" s="2">
         <v>0.55968257883307171</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -657,31 +739,43 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F5" s="2">
-        <v>64</v>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G5" s="2">
         <v>32</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="2">
         <v>50</v>
       </c>
-      <c r="I5" s="2">
+      <c r="M5" s="2">
         <v>3.0792256415611172</v>
       </c>
-      <c r="J5" s="2">
+      <c r="N5" s="2">
         <v>3.978334143033178</v>
       </c>
-      <c r="K5" s="2">
+      <c r="O5" s="2">
         <v>0.53402023585638636</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -692,31 +786,43 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E6" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F6" s="2">
-        <v>64</v>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G6" s="2">
         <v>32</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2">
         <v>50</v>
       </c>
-      <c r="I6" s="2">
+      <c r="M6" s="2">
         <v>9.9632897214134299</v>
       </c>
-      <c r="J6" s="2">
+      <c r="N6" s="2">
         <v>20.38489913986697</v>
       </c>
-      <c r="K6" s="2">
+      <c r="O6" s="2">
         <v>-3.2443222359853419E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>1</v>
       </c>
@@ -727,31 +833,43 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E7" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F7" s="2">
-        <v>64</v>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G7" s="2">
         <v>32</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2">
         <v>50</v>
       </c>
-      <c r="I7" s="2">
+      <c r="M7" s="2">
         <v>1.693019719736534</v>
       </c>
-      <c r="J7" s="2">
+      <c r="N7" s="2">
         <v>2.127926642264848</v>
       </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2">
         <v>0.4879038126283024</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -762,31 +880,43 @@
         <v>7</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F8" s="2">
-        <v>64</v>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G8" s="2">
         <v>32</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="2">
         <v>50</v>
       </c>
-      <c r="I8" s="2">
+      <c r="M8" s="2">
         <v>1.040038389044788</v>
       </c>
-      <c r="J8" s="2">
+      <c r="N8" s="2">
         <v>1.467435794654123</v>
       </c>
-      <c r="K8" s="2">
+      <c r="O8" s="2">
         <v>0.18533986602221769</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -797,66 +927,90 @@
         <v>7</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E9" s="2">
         <v>1E-3</v>
       </c>
-      <c r="F9" s="2">
-        <v>64</v>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G9" s="2">
         <v>32</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" s="2">
         <v>50</v>
       </c>
-      <c r="I9" s="2">
+      <c r="M9" s="2">
         <v>0.46699146228863259</v>
       </c>
-      <c r="J9" s="2">
+      <c r="N9" s="2">
         <v>0.59686917162050324</v>
       </c>
-      <c r="K9" s="2">
+      <c r="O9" s="2">
         <v>0.44463333958381068</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F10" s="3">
-        <v>64</v>
+      <c r="F10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="3">
         <v>32</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="M10" s="3">
         <v>0.53815167349975745</v>
       </c>
-      <c r="J10" s="3">
+      <c r="N10" s="3">
         <v>0.70475416511714184</v>
       </c>
-      <c r="K10" s="3">
+      <c r="O10" s="3">
         <v>0.63374000258065255</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -867,31 +1021,43 @@
         <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E11" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F11" s="3">
-        <v>64</v>
+      <c r="F11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G11" s="3">
         <v>32</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="3">
         <v>100</v>
       </c>
-      <c r="I11" s="3">
+      <c r="M11" s="3">
         <v>0.91115745671225079</v>
       </c>
-      <c r="J11" s="3">
+      <c r="N11" s="3">
         <v>1.209590649246723</v>
       </c>
-      <c r="K11" s="3">
+      <c r="O11" s="3">
         <v>0.4252838388678285</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -902,31 +1068,43 @@
         <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F12" s="3">
-        <v>64</v>
+      <c r="F12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G12" s="3">
         <v>32</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="M12" s="3">
         <v>0.70950100599272503</v>
       </c>
-      <c r="J12" s="3">
+      <c r="N12" s="3">
         <v>0.92202506731020906</v>
       </c>
-      <c r="K12" s="3">
+      <c r="O12" s="3">
         <v>0.55874914655260666</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -937,31 +1115,43 @@
         <v>7</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E13" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F13" s="3">
-        <v>64</v>
+      <c r="F13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G13" s="3">
         <v>32</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="3">
         <v>100</v>
       </c>
-      <c r="I13" s="3">
+      <c r="M13" s="3">
         <v>3.0757996238762271</v>
       </c>
-      <c r="J13" s="3">
+      <c r="N13" s="3">
         <v>3.9916380850751452</v>
       </c>
-      <c r="K13" s="3">
+      <c r="O13" s="3">
         <v>0.5308984601580663</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>2</v>
       </c>
@@ -972,31 +1162,43 @@
         <v>7</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E14" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F14" s="3">
-        <v>64</v>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G14" s="3">
         <v>32</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="M14" s="3">
         <v>9.9143630322723979</v>
       </c>
-      <c r="J14" s="3">
+      <c r="N14" s="3">
         <v>20.546867921533671</v>
       </c>
-      <c r="K14" s="3">
+      <c r="O14" s="3">
         <v>-4.8915014491331947E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>2</v>
       </c>
@@ -1007,31 +1209,43 @@
         <v>7</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E15" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F15" s="3">
-        <v>64</v>
+      <c r="F15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G15" s="3">
         <v>32</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="3">
         <v>100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="M15" s="3">
         <v>1.607270797306342</v>
       </c>
-      <c r="J15" s="3">
+      <c r="N15" s="3">
         <v>2.045616752226008</v>
       </c>
-      <c r="K15" s="3">
+      <c r="O15" s="3">
         <v>0.52675418566598964</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>2</v>
       </c>
@@ -1042,31 +1256,43 @@
         <v>7</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E16" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F16" s="3">
-        <v>64</v>
+      <c r="F16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G16" s="3">
         <v>32</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="3">
         <v>100</v>
       </c>
-      <c r="I16" s="3">
+      <c r="M16" s="3">
         <v>1.0432280145944031</v>
       </c>
-      <c r="J16" s="3">
+      <c r="N16" s="3">
         <v>1.447360338924006</v>
       </c>
-      <c r="K16" s="3">
+      <c r="O16" s="3">
         <v>0.20747753275002559</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>2</v>
       </c>
@@ -1077,66 +1303,90 @@
         <v>7</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E17" s="3">
         <v>1E-3</v>
       </c>
-      <c r="F17" s="3">
-        <v>64</v>
+      <c r="F17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="G17" s="3">
         <v>32</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="M17" s="3">
         <v>0.46024708245894441</v>
       </c>
-      <c r="J17" s="3">
+      <c r="N17" s="3">
         <v>0.58996647839671834</v>
       </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
         <v>0.45740450894431539</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18" s="4">
         <v>14</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E18" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F18" s="4">
-        <v>64</v>
+      <c r="F18" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="4">
         <v>32</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="4">
         <v>50</v>
       </c>
-      <c r="I18" s="4">
+      <c r="M18" s="4">
         <v>0.53772446268550922</v>
       </c>
-      <c r="J18" s="4">
+      <c r="N18" s="4">
         <v>0.7084285998658717</v>
       </c>
-      <c r="K18" s="4">
+      <c r="O18" s="4">
         <v>0.62998985983325473</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>3</v>
       </c>
@@ -1147,31 +1397,43 @@
         <v>14</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E19" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F19" s="4">
-        <v>64</v>
+      <c r="F19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G19" s="4">
         <v>32</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="4">
         <v>50</v>
       </c>
-      <c r="I19" s="4">
+      <c r="M19" s="4">
         <v>0.89437589378031468</v>
       </c>
-      <c r="J19" s="4">
+      <c r="N19" s="4">
         <v>1.197989430592644</v>
       </c>
-      <c r="K19" s="4">
+      <c r="O19" s="4">
         <v>0.43622366739065338</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -1182,31 +1444,43 @@
         <v>14</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E20" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F20" s="4">
-        <v>64</v>
+      <c r="F20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G20" s="4">
         <v>32</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="4">
         <v>50</v>
       </c>
-      <c r="I20" s="4">
+      <c r="M20" s="4">
         <v>0.68959076320296819</v>
       </c>
-      <c r="J20" s="4">
+      <c r="N20" s="4">
         <v>0.90665356504243388</v>
       </c>
-      <c r="K20" s="4">
+      <c r="O20" s="4">
         <v>0.57350376218359811</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>3</v>
       </c>
@@ -1217,31 +1491,43 @@
         <v>14</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E21" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F21" s="4">
-        <v>64</v>
+      <c r="F21" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G21" s="4">
         <v>32</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="4">
         <v>50</v>
       </c>
-      <c r="I21" s="4">
+      <c r="M21" s="4">
         <v>3.0695613340988568</v>
       </c>
-      <c r="J21" s="4">
+      <c r="N21" s="4">
         <v>3.9536807150125441</v>
       </c>
-      <c r="K21" s="4">
+      <c r="O21" s="4">
         <v>0.53984601548831679</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>3</v>
       </c>
@@ -1252,31 +1538,43 @@
         <v>14</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E22" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F22" s="4">
-        <v>64</v>
+      <c r="F22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G22" s="4">
         <v>32</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="4">
         <v>50</v>
       </c>
-      <c r="I22" s="4">
+      <c r="M22" s="4">
         <v>9.9259496307226982</v>
       </c>
-      <c r="J22" s="4">
+      <c r="N22" s="4">
         <v>20.768483753133751</v>
       </c>
-      <c r="K22" s="4">
+      <c r="O22" s="4">
         <v>-7.1076123640239741E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>3</v>
       </c>
@@ -1287,31 +1585,43 @@
         <v>14</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E23" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F23" s="4">
-        <v>64</v>
+      <c r="F23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G23" s="4">
         <v>32</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="4">
         <v>50</v>
       </c>
-      <c r="I23" s="4">
+      <c r="M23" s="4">
         <v>1.596006812344398</v>
       </c>
-      <c r="J23" s="4">
+      <c r="N23" s="4">
         <v>2.016274793173745</v>
       </c>
-      <c r="K23" s="4">
+      <c r="O23" s="4">
         <v>0.54009176085292721</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>3</v>
       </c>
@@ -1322,31 +1632,43 @@
         <v>14</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E24" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F24" s="4">
-        <v>64</v>
+      <c r="F24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G24" s="4">
         <v>32</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="4">
         <v>50</v>
       </c>
-      <c r="I24" s="4">
+      <c r="M24" s="4">
         <v>1.029672686115034</v>
       </c>
-      <c r="J24" s="4">
+      <c r="N24" s="4">
         <v>1.472042005738176</v>
       </c>
-      <c r="K24" s="4">
+      <c r="O24" s="4">
         <v>0.1804694111273315</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>3</v>
       </c>
@@ -1357,66 +1679,90 @@
         <v>14</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E25" s="4">
         <v>1E-3</v>
       </c>
-      <c r="F25" s="4">
-        <v>64</v>
+      <c r="F25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G25" s="4">
         <v>32</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="4">
         <v>50</v>
       </c>
-      <c r="I25" s="4">
+      <c r="M25" s="4">
         <v>0.46826769491025488</v>
       </c>
-      <c r="J25" s="4">
+      <c r="N25" s="4">
         <v>0.59041968377744614</v>
       </c>
-      <c r="K25" s="4">
+      <c r="O25" s="4">
         <v>0.4567001796815674</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>4</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C26" s="5">
         <v>14</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E26" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F26" s="5">
-        <v>64</v>
+      <c r="F26" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G26" s="5">
         <v>32</v>
       </c>
-      <c r="H26" s="5">
+      <c r="H26" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="5">
         <v>100</v>
       </c>
-      <c r="I26" s="5">
+      <c r="M26" s="5">
         <v>0.52617411569458816</v>
       </c>
-      <c r="J26" s="5">
+      <c r="N26" s="5">
         <v>0.69221063343520928</v>
       </c>
-      <c r="K26" s="5">
+      <c r="O26" s="5">
         <v>0.64673713434337488</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>4</v>
       </c>
@@ -1427,31 +1773,43 @@
         <v>14</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E27" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F27" s="5">
-        <v>64</v>
+      <c r="F27" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G27" s="5">
         <v>32</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="5">
         <v>100</v>
       </c>
-      <c r="I27" s="5">
+      <c r="M27" s="5">
         <v>0.91252153457383878</v>
       </c>
-      <c r="J27" s="5">
+      <c r="N27" s="5">
         <v>1.249124551153491</v>
       </c>
-      <c r="K27" s="5">
+      <c r="O27" s="5">
         <v>0.38706791477470959</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>4</v>
       </c>
@@ -1462,31 +1820,43 @@
         <v>14</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E28" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F28" s="5">
-        <v>64</v>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G28" s="5">
         <v>32</v>
       </c>
-      <c r="H28" s="5">
+      <c r="H28" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="5">
         <v>100</v>
       </c>
-      <c r="I28" s="5">
+      <c r="M28" s="5">
         <v>0.69888677362903329</v>
       </c>
-      <c r="J28" s="5">
+      <c r="N28" s="5">
         <v>0.90946519359203037</v>
       </c>
-      <c r="K28" s="5">
+      <c r="O28" s="5">
         <v>0.57085444079171999</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>4</v>
       </c>
@@ -1497,31 +1867,43 @@
         <v>14</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E29" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F29" s="5">
-        <v>64</v>
+      <c r="F29" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G29" s="5">
         <v>32</v>
       </c>
-      <c r="H29" s="5">
+      <c r="H29" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="5">
         <v>100</v>
       </c>
-      <c r="I29" s="5">
+      <c r="M29" s="5">
         <v>3.0995844336683569</v>
       </c>
-      <c r="J29" s="5">
+      <c r="N29" s="5">
         <v>4.0246344436666632</v>
       </c>
-      <c r="K29" s="5">
+      <c r="O29" s="5">
         <v>0.52318174106510873</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>4</v>
       </c>
@@ -1532,31 +1914,43 @@
         <v>14</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E30" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F30" s="5">
-        <v>64</v>
+      <c r="F30" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G30" s="5">
         <v>32</v>
       </c>
-      <c r="H30" s="5">
+      <c r="H30" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="5">
         <v>100</v>
       </c>
-      <c r="I30" s="5">
+      <c r="M30" s="5">
         <v>10.056215256751191</v>
       </c>
-      <c r="J30" s="5">
+      <c r="N30" s="5">
         <v>21.1808986042514</v>
       </c>
-      <c r="K30" s="5">
+      <c r="O30" s="5">
         <v>-0.1140367517818426</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>4</v>
       </c>
@@ -1567,31 +1961,43 @@
         <v>14</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E31" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F31" s="5">
-        <v>64</v>
+      <c r="F31" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G31" s="5">
         <v>32</v>
       </c>
-      <c r="H31" s="5">
+      <c r="H31" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="5">
         <v>100</v>
       </c>
-      <c r="I31" s="5">
+      <c r="M31" s="5">
         <v>1.588368921539997</v>
       </c>
-      <c r="J31" s="5">
+      <c r="N31" s="5">
         <v>2.022582892605457</v>
       </c>
-      <c r="K31" s="5">
+      <c r="O31" s="5">
         <v>0.53720952955878831</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>4</v>
       </c>
@@ -1602,31 +2008,43 @@
         <v>14</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E32" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F32" s="5">
-        <v>64</v>
+      <c r="F32" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G32" s="5">
         <v>32</v>
       </c>
-      <c r="H32" s="5">
+      <c r="H32" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="5">
         <v>100</v>
       </c>
-      <c r="I32" s="5">
+      <c r="M32" s="5">
         <v>1.0258720009330671</v>
       </c>
-      <c r="J32" s="5">
+      <c r="N32" s="5">
         <v>1.4475312229913599</v>
       </c>
-      <c r="K32" s="5">
+      <c r="O32" s="5">
         <v>0.20753399258671959</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>4</v>
       </c>
@@ -1637,66 +2055,90 @@
         <v>14</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E33" s="5">
         <v>1E-3</v>
       </c>
-      <c r="F33" s="5">
-        <v>64</v>
+      <c r="F33" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="G33" s="5">
         <v>32</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="5">
         <v>100</v>
       </c>
-      <c r="I33" s="5">
+      <c r="M33" s="5">
         <v>0.45879317827726429</v>
       </c>
-      <c r="J33" s="5">
+      <c r="N33" s="5">
         <v>0.59034849718074278</v>
       </c>
-      <c r="K33" s="5">
+      <c r="O33" s="5">
         <v>0.4568311825417638</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>5</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C34" s="6">
         <v>7</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E34" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F34" s="6">
-        <v>128</v>
+      <c r="F34" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G34" s="6">
         <v>32</v>
       </c>
-      <c r="H34" s="6">
+      <c r="H34" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="6">
         <v>50</v>
       </c>
-      <c r="I34" s="6">
+      <c r="M34" s="6">
         <v>0.53814324621514031</v>
       </c>
-      <c r="J34" s="6">
+      <c r="N34" s="6">
         <v>0.71243150637949637</v>
       </c>
-      <c r="K34" s="6">
+      <c r="O34" s="6">
         <v>0.62571672562393088</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>5</v>
       </c>
@@ -1707,31 +2149,43 @@
         <v>7</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E35" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F35" s="6">
-        <v>128</v>
+      <c r="F35" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G35" s="6">
         <v>32</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="6">
         <v>50</v>
       </c>
-      <c r="I35" s="6">
+      <c r="M35" s="6">
         <v>0.90114957898567372</v>
       </c>
-      <c r="J35" s="6">
+      <c r="N35" s="6">
         <v>1.202688206288558</v>
       </c>
-      <c r="K35" s="6">
+      <c r="O35" s="6">
         <v>0.4318242779422653</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>5</v>
       </c>
@@ -1742,31 +2196,43 @@
         <v>7</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E36" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F36" s="6">
-        <v>128</v>
+      <c r="F36" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G36" s="6">
         <v>32</v>
       </c>
-      <c r="H36" s="6">
+      <c r="H36" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="6">
         <v>50</v>
       </c>
-      <c r="I36" s="6">
+      <c r="M36" s="6">
         <v>0.69289864288093772</v>
       </c>
-      <c r="J36" s="6">
+      <c r="N36" s="6">
         <v>0.90460326033414118</v>
       </c>
-      <c r="K36" s="6">
+      <c r="O36" s="6">
         <v>0.57526661506559273</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>5</v>
       </c>
@@ -1777,31 +2243,43 @@
         <v>7</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E37" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F37" s="6">
-        <v>128</v>
+      <c r="F37" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G37" s="6">
         <v>32</v>
       </c>
-      <c r="H37" s="6">
+      <c r="H37" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="6">
         <v>50</v>
       </c>
-      <c r="I37" s="6">
+      <c r="M37" s="6">
         <v>3.0803450462681852</v>
       </c>
-      <c r="J37" s="6">
+      <c r="N37" s="6">
         <v>3.9611064258205149</v>
       </c>
-      <c r="K37" s="6">
+      <c r="O37" s="6">
         <v>0.53804724095680379</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>5</v>
       </c>
@@ -1812,31 +2290,43 @@
         <v>7</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E38" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F38" s="6">
-        <v>128</v>
+      <c r="F38" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G38" s="6">
         <v>32</v>
       </c>
-      <c r="H38" s="6">
+      <c r="H38" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="6">
         <v>50</v>
       </c>
-      <c r="I38" s="6">
+      <c r="M38" s="6">
         <v>9.8874855234124599</v>
       </c>
-      <c r="J38" s="6">
+      <c r="N38" s="6">
         <v>20.0620996282668</v>
       </c>
-      <c r="K38" s="6">
+      <c r="O38" s="6">
         <v>-4.1658409866141E-6</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>5</v>
       </c>
@@ -1847,31 +2337,43 @@
         <v>7</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E39" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F39" s="6">
-        <v>128</v>
+      <c r="F39" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G39" s="6">
         <v>32</v>
       </c>
-      <c r="H39" s="6">
+      <c r="H39" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="6">
         <v>50</v>
       </c>
-      <c r="I39" s="6">
+      <c r="M39" s="6">
         <v>1.6160517897243281</v>
       </c>
-      <c r="J39" s="6">
+      <c r="N39" s="6">
         <v>2.0465401534475518</v>
       </c>
-      <c r="K39" s="6">
+      <c r="O39" s="6">
         <v>0.52632683836981231</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>5</v>
       </c>
@@ -1882,31 +2384,43 @@
         <v>7</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E40" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F40" s="6">
-        <v>128</v>
+      <c r="F40" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G40" s="6">
         <v>32</v>
       </c>
-      <c r="H40" s="6">
+      <c r="H40" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="6">
         <v>50</v>
       </c>
-      <c r="I40" s="6">
+      <c r="M40" s="6">
         <v>1.0397001530932639</v>
       </c>
-      <c r="J40" s="6">
+      <c r="N40" s="6">
         <v>1.4491088044896949</v>
       </c>
-      <c r="K40" s="6">
+      <c r="O40" s="6">
         <v>0.2055615824583745</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>5</v>
       </c>
@@ -1917,66 +2431,90 @@
         <v>7</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E41" s="6">
         <v>1E-3</v>
       </c>
-      <c r="F41" s="6">
-        <v>128</v>
+      <c r="F41" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="G41" s="6">
         <v>32</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="6">
         <v>50</v>
       </c>
-      <c r="I41" s="6">
+      <c r="M41" s="6">
         <v>0.46047325348673579</v>
       </c>
-      <c r="J41" s="6">
+      <c r="N41" s="6">
         <v>0.59060175739849607</v>
       </c>
-      <c r="K41" s="6">
+      <c r="O41" s="6">
         <v>0.45623534045192299</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="7">
         <v>6</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C42" s="7">
         <v>7</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E42" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F42" s="7">
-        <v>128</v>
+      <c r="F42" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G42" s="7">
         <v>32</v>
       </c>
-      <c r="H42" s="7">
+      <c r="H42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L42" s="7">
         <v>100</v>
       </c>
-      <c r="I42" s="7">
+      <c r="M42" s="7">
         <v>0.52515309565394819</v>
       </c>
-      <c r="J42" s="7">
+      <c r="N42" s="7">
         <v>0.69857344515539344</v>
       </c>
-      <c r="K42" s="7">
+      <c r="O42" s="7">
         <v>0.64013605953583619</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="7">
         <v>6</v>
       </c>
@@ -1987,31 +2525,43 @@
         <v>7</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E43" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F43" s="7">
-        <v>128</v>
+      <c r="F43" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G43" s="7">
         <v>32</v>
       </c>
-      <c r="H43" s="7">
+      <c r="H43" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K43" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L43" s="7">
         <v>100</v>
       </c>
-      <c r="I43" s="7">
+      <c r="M43" s="7">
         <v>0.90139673588678981</v>
       </c>
-      <c r="J43" s="7">
+      <c r="N43" s="7">
         <v>1.2079153597889829</v>
       </c>
-      <c r="K43" s="7">
+      <c r="O43" s="7">
         <v>0.42687470628063051</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
         <v>6</v>
       </c>
@@ -2022,31 +2572,43 @@
         <v>7</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E44" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F44" s="7">
-        <v>128</v>
+      <c r="F44" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G44" s="7">
         <v>32</v>
       </c>
-      <c r="H44" s="7">
+      <c r="H44" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K44" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L44" s="7">
         <v>100</v>
       </c>
-      <c r="I44" s="7">
+      <c r="M44" s="7">
         <v>0.69583035399933912</v>
       </c>
-      <c r="J44" s="7">
+      <c r="N44" s="7">
         <v>0.90971829933954629</v>
       </c>
-      <c r="K44" s="7">
+      <c r="O44" s="7">
         <v>0.57044976295486016</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7">
         <v>6</v>
       </c>
@@ -2057,31 +2619,43 @@
         <v>7</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E45" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F45" s="7">
-        <v>128</v>
+      <c r="F45" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G45" s="7">
         <v>32</v>
       </c>
-      <c r="H45" s="7">
+      <c r="H45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L45" s="7">
         <v>100</v>
       </c>
-      <c r="I45" s="7">
+      <c r="M45" s="7">
         <v>3.0648214316478049</v>
       </c>
-      <c r="J45" s="7">
+      <c r="N45" s="7">
         <v>3.9644483546669131</v>
       </c>
-      <c r="K45" s="7">
+      <c r="O45" s="7">
         <v>0.53726742626279145</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="7">
         <v>6</v>
       </c>
@@ -2092,31 +2666,43 @@
         <v>7</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E46" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F46" s="7">
-        <v>128</v>
+      <c r="F46" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G46" s="7">
         <v>32</v>
       </c>
-      <c r="H46" s="7">
+      <c r="H46" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L46" s="7">
         <v>100</v>
       </c>
-      <c r="I46" s="7">
+      <c r="M46" s="7">
         <v>9.7330300438547095</v>
       </c>
-      <c r="J46" s="7">
+      <c r="N46" s="7">
         <v>19.943667584812289</v>
       </c>
-      <c r="K46" s="7">
+      <c r="O46" s="7">
         <v>1.1767579812311911E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="7">
         <v>6</v>
       </c>
@@ -2127,31 +2713,43 @@
         <v>7</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E47" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F47" s="7">
-        <v>128</v>
+      <c r="F47" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G47" s="7">
         <v>32</v>
       </c>
-      <c r="H47" s="7">
+      <c r="H47" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L47" s="7">
         <v>100</v>
       </c>
-      <c r="I47" s="7">
+      <c r="M47" s="7">
         <v>1.5825820954181209</v>
       </c>
-      <c r="J47" s="7">
+      <c r="N47" s="7">
         <v>2.031758882415045</v>
       </c>
-      <c r="K47" s="7">
+      <c r="O47" s="7">
         <v>0.53314440019954867</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="7">
         <v>6</v>
       </c>
@@ -2162,31 +2760,43 @@
         <v>7</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E48" s="7">
         <v>1E-3</v>
       </c>
-      <c r="F48" s="7">
-        <v>128</v>
+      <c r="F48" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="G48" s="7">
         <v>32</v>
       </c>
-      <c r="H48" s="7">
+      <c r="H48" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L48" s="7">
         <v>100</v>
       </c>
-      <c r="I48" s="7">
+      <c r="M48" s="7">
         <v>1.0438417640313631</v>
       </c>
-      <c r="J48" s="7">
+      <c r="N48" s="7">
         <v>1.485193002241201</v>
       </c>
-      <c r="K48" s="7">
+      <c r="O48" s="7">
         <v>0.16550442914809729</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="7">
         <v>6</v>
       </c>
@@ -2197,66 +2807,90 @@
         <v>7</v>
       </c>
       <c r="D49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="7">
+        <v>32</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L49" s="7">
+        <v>100</v>
+      </c>
+      <c r="M49" s="7">
+        <v>0.48487834778192879</v>
+      </c>
+      <c r="N49" s="7">
+        <v>0.61369947967002891</v>
+      </c>
+      <c r="O49" s="7">
+        <v>0.41287169388161649</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" s="8">
+        <v>7</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="7">
-        <v>1E-3</v>
-      </c>
-      <c r="F49" s="7">
-        <v>128</v>
-      </c>
-      <c r="G49" s="7">
-        <v>32</v>
-      </c>
-      <c r="H49" s="7">
-        <v>100</v>
-      </c>
-      <c r="I49" s="7">
-        <v>0.48487834778192879</v>
-      </c>
-      <c r="J49" s="7">
-        <v>0.61369947967002891</v>
-      </c>
-      <c r="K49" s="7">
-        <v>0.41287169388161649</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="8">
-        <v>7</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="C50" s="8">
         <v>14</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E50" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F50" s="8">
-        <v>128</v>
+      <c r="F50" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G50" s="8">
         <v>32</v>
       </c>
-      <c r="H50" s="8">
+      <c r="H50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L50" s="8">
         <v>50</v>
       </c>
-      <c r="I50" s="8">
+      <c r="M50" s="8">
         <v>0.53276620719068712</v>
       </c>
-      <c r="J50" s="8">
+      <c r="N50" s="8">
         <v>0.70124221825098221</v>
       </c>
-      <c r="K50" s="8">
+      <c r="O50" s="8">
         <v>0.63745863592338736</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>7</v>
       </c>
@@ -2267,31 +2901,43 @@
         <v>14</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E51" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F51" s="8">
-        <v>128</v>
+      <c r="F51" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G51" s="8">
         <v>32</v>
       </c>
-      <c r="H51" s="8">
+      <c r="H51" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L51" s="8">
         <v>50</v>
       </c>
-      <c r="I51" s="8">
+      <c r="M51" s="8">
         <v>0.89667601116272755</v>
       </c>
-      <c r="J51" s="8">
+      <c r="N51" s="8">
         <v>1.2110567256630931</v>
       </c>
-      <c r="K51" s="8">
+      <c r="O51" s="8">
         <v>0.42385759779973647</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>7</v>
       </c>
@@ -2302,31 +2948,43 @@
         <v>14</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E52" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F52" s="8">
-        <v>128</v>
+      <c r="F52" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G52" s="8">
         <v>32</v>
       </c>
-      <c r="H52" s="8">
+      <c r="H52" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L52" s="8">
         <v>50</v>
       </c>
-      <c r="I52" s="8">
+      <c r="M52" s="8">
         <v>0.69148649261862516</v>
       </c>
-      <c r="J52" s="8">
+      <c r="N52" s="8">
         <v>0.90542225242906293</v>
       </c>
-      <c r="K52" s="8">
+      <c r="O52" s="8">
         <v>0.57466141184849384</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>7</v>
       </c>
@@ -2337,31 +2995,43 @@
         <v>14</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E53" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F53" s="8">
-        <v>128</v>
+      <c r="F53" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G53" s="8">
         <v>32</v>
       </c>
-      <c r="H53" s="8">
+      <c r="H53" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K53" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L53" s="8">
         <v>50</v>
       </c>
-      <c r="I53" s="8">
+      <c r="M53" s="8">
         <v>3.061338273569326</v>
       </c>
-      <c r="J53" s="8">
+      <c r="N53" s="8">
         <v>3.9406792554711618</v>
       </c>
-      <c r="K53" s="8">
+      <c r="O53" s="8">
         <v>0.54286742110919128</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>7</v>
       </c>
@@ -2372,31 +3042,43 @@
         <v>14</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E54" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F54" s="8">
-        <v>128</v>
+      <c r="F54" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G54" s="8">
         <v>32</v>
       </c>
-      <c r="H54" s="8">
+      <c r="H54" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="8">
         <v>50</v>
       </c>
-      <c r="I54" s="8">
+      <c r="M54" s="8">
         <v>9.7072689668628414</v>
       </c>
-      <c r="J54" s="8">
+      <c r="N54" s="8">
         <v>19.999071801804298</v>
       </c>
-      <c r="K54" s="8">
+      <c r="O54" s="8">
         <v>6.8143519466544733E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>7</v>
       </c>
@@ -2407,31 +3089,43 @@
         <v>14</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E55" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F55" s="8">
-        <v>128</v>
+      <c r="F55" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G55" s="8">
         <v>32</v>
       </c>
-      <c r="H55" s="8">
+      <c r="H55" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K55" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L55" s="8">
         <v>50</v>
       </c>
-      <c r="I55" s="8">
+      <c r="M55" s="8">
         <v>1.560755714161272</v>
       </c>
-      <c r="J55" s="8">
+      <c r="N55" s="8">
         <v>2.0021044426300252</v>
       </c>
-      <c r="K55" s="8">
+      <c r="O55" s="8">
         <v>0.5465335019120281</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>7</v>
       </c>
@@ -2442,31 +3136,43 @@
         <v>14</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E56" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F56" s="8">
-        <v>128</v>
+      <c r="F56" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G56" s="8">
         <v>32</v>
       </c>
-      <c r="H56" s="8">
+      <c r="H56" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" s="8">
         <v>50</v>
       </c>
-      <c r="I56" s="8">
+      <c r="M56" s="8">
         <v>1.0296730593108929</v>
       </c>
-      <c r="J56" s="8">
+      <c r="N56" s="8">
         <v>1.467809643258877</v>
       </c>
-      <c r="K56" s="8">
+      <c r="O56" s="8">
         <v>0.18517520644478</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>7</v>
       </c>
@@ -2477,66 +3183,90 @@
         <v>14</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E57" s="8">
         <v>1E-3</v>
       </c>
-      <c r="F57" s="8">
-        <v>128</v>
+      <c r="F57" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G57" s="8">
         <v>32</v>
       </c>
-      <c r="H57" s="8">
+      <c r="H57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K57" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L57" s="8">
         <v>50</v>
       </c>
-      <c r="I57" s="8">
+      <c r="M57" s="8">
         <v>0.45766602461499528</v>
       </c>
-      <c r="J57" s="8">
+      <c r="N57" s="8">
         <v>0.59234530127601959</v>
       </c>
-      <c r="K57" s="8">
+      <c r="O57" s="8">
         <v>0.45315052268975647</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="9">
         <v>8</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C58" s="9">
         <v>14</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E58" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F58" s="9">
-        <v>128</v>
+      <c r="F58" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G58" s="9">
         <v>32</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I58" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K58" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L58" s="9">
         <v>100</v>
       </c>
-      <c r="I58" s="9">
+      <c r="M58" s="9">
         <v>0.52549717435018106</v>
       </c>
-      <c r="J58" s="9">
+      <c r="N58" s="9">
         <v>0.69874521482479224</v>
       </c>
-      <c r="K58" s="9">
+      <c r="O58" s="9">
         <v>0.64003593447815732</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="9">
         <v>8</v>
       </c>
@@ -2547,31 +3277,43 @@
         <v>14</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E59" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F59" s="9">
-        <v>128</v>
+      <c r="F59" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G59" s="9">
         <v>32</v>
       </c>
-      <c r="H59" s="9">
+      <c r="H59" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I59" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K59" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L59" s="9">
         <v>100</v>
       </c>
-      <c r="I59" s="9">
+      <c r="M59" s="9">
         <v>0.90260150782555093</v>
       </c>
-      <c r="J59" s="9">
+      <c r="N59" s="9">
         <v>1.1934069466916499</v>
       </c>
-      <c r="K59" s="9">
+      <c r="O59" s="9">
         <v>0.44052847138655599</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="9">
         <v>8</v>
       </c>
@@ -2582,31 +3324,43 @@
         <v>14</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E60" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F60" s="9">
-        <v>128</v>
+      <c r="F60" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G60" s="9">
         <v>32</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L60" s="9">
         <v>100</v>
       </c>
-      <c r="I60" s="9">
+      <c r="M60" s="9">
         <v>0.68733859898299676</v>
       </c>
-      <c r="J60" s="9">
+      <c r="N60" s="9">
         <v>0.91125807900301281</v>
       </c>
-      <c r="K60" s="9">
+      <c r="O60" s="9">
         <v>0.56916077024888168</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="9">
         <v>8</v>
       </c>
@@ -2617,31 +3371,43 @@
         <v>14</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E61" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F61" s="9">
-        <v>128</v>
+      <c r="F61" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G61" s="9">
         <v>32</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L61" s="9">
         <v>100</v>
       </c>
-      <c r="I61" s="9">
+      <c r="M61" s="9">
         <v>3.0452149032653879</v>
       </c>
-      <c r="J61" s="9">
+      <c r="N61" s="9">
         <v>3.942320275629156</v>
       </c>
-      <c r="K61" s="9">
+      <c r="O61" s="9">
         <v>0.54248661367786344</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="9">
         <v>8</v>
       </c>
@@ -2652,31 +3418,43 @@
         <v>14</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E62" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F62" s="9">
-        <v>128</v>
+      <c r="F62" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G62" s="9">
         <v>32</v>
       </c>
-      <c r="H62" s="9">
+      <c r="H62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L62" s="9">
         <v>100</v>
       </c>
-      <c r="I62" s="9">
+      <c r="M62" s="9">
         <v>9.8231294072274355</v>
       </c>
-      <c r="J62" s="9">
+      <c r="N62" s="9">
         <v>20.436912883224689</v>
       </c>
-      <c r="K62" s="9">
+      <c r="O62" s="9">
         <v>-3.7149454492380267E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="9">
         <v>8</v>
       </c>
@@ -2687,31 +3465,43 @@
         <v>14</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E63" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F63" s="9">
-        <v>128</v>
+      <c r="F63" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G63" s="9">
         <v>32</v>
       </c>
-      <c r="H63" s="9">
+      <c r="H63" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L63" s="9">
         <v>100</v>
       </c>
-      <c r="I63" s="9">
+      <c r="M63" s="9">
         <v>1.5641817957090209</v>
       </c>
-      <c r="J63" s="9">
+      <c r="N63" s="9">
         <v>2.0127111625890972</v>
       </c>
-      <c r="K63" s="9">
+      <c r="O63" s="9">
         <v>0.54171603817036207</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="9">
         <v>8</v>
       </c>
@@ -2722,31 +3512,43 @@
         <v>14</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E64" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F64" s="9">
-        <v>128</v>
+      <c r="F64" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G64" s="9">
         <v>32</v>
       </c>
-      <c r="H64" s="9">
+      <c r="H64" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I64" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K64" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L64" s="9">
         <v>100</v>
       </c>
-      <c r="I64" s="9">
+      <c r="M64" s="9">
         <v>1.023708305831323</v>
       </c>
-      <c r="J64" s="9">
+      <c r="N64" s="9">
         <v>1.463087487782647</v>
       </c>
-      <c r="K64" s="9">
+      <c r="O64" s="9">
         <v>0.19040959092827611</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="9">
         <v>8</v>
       </c>
@@ -2757,27 +3559,39 @@
         <v>14</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E65" s="9">
         <v>1E-3</v>
       </c>
-      <c r="F65" s="9">
-        <v>128</v>
+      <c r="F65" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="G65" s="9">
         <v>32</v>
       </c>
-      <c r="H65" s="9">
+      <c r="H65" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L65" s="9">
         <v>100</v>
       </c>
-      <c r="I65" s="9">
+      <c r="M65" s="9">
         <v>0.45918320495347908</v>
       </c>
-      <c r="J65" s="9">
+      <c r="N65" s="9">
         <v>0.58597741077021859</v>
       </c>
-      <c r="K65" s="9">
+      <c r="O65" s="9">
         <v>0.46484491722753979</v>
       </c>
     </row>
